--- a/data/trans_bre/Q45B_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/Q45B_R-Habitat-trans_bre.xlsx
@@ -642,17 +642,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,47; 7,75</t>
+          <t>1,47; 7,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 5,69</t>
+          <t>-1,61; 5,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 4,41</t>
+          <t>-3,37; 4,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 571,5</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,79; 6,61</t>
+          <t>2,89; 6,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,33; 4,02</t>
+          <t>0,31; 4,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,79</t>
+          <t>0,44; 3,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>114,27; —</t>
+          <t>181,05; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 461,76</t>
+          <t>2,11; 549,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,44; 616,14</t>
+          <t>11,84; 592,93</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,05; 8,82</t>
+          <t>5,02; 9,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,97; 7,72</t>
+          <t>4,14; 7,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,8; 4,49</t>
+          <t>1,87; 4,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>199,79; 810,48</t>
+          <t>192,64; 838,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>159,58; 774,82</t>
+          <t>180,47; 788,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>127,21; 1237,48</t>
+          <t>142,44; 1235,27</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,97; 6,07</t>
+          <t>1,87; 6,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,36; 6,22</t>
+          <t>1,4; 6,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,28; 3,87</t>
+          <t>1,06; 3,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>58,2; 498,3</t>
+          <t>59,04; 589,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,33; 235,08</t>
+          <t>30,33; 248,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>79,14; 1960,6</t>
+          <t>59,36; 1889,56</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,45; 9,17</t>
+          <t>4,57; 9,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,74; 8,96</t>
+          <t>4,74; 9,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,51; 4,18</t>
+          <t>1,45; 4,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>92,66; 314,33</t>
+          <t>94,56; 331,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>92,78; 320,47</t>
+          <t>108,66; 347,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>81,79; 610,23</t>
+          <t>73,85; 614,21</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,85; 6,9</t>
+          <t>4,73; 6,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,9; 5,99</t>
+          <t>3,92; 6,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,95; 3,27</t>
+          <t>1,86; 3,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>198,07; 411,77</t>
+          <t>191,88; 415,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>132,9; 280,4</t>
+          <t>129,08; 286,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>166,69; 459,51</t>
+          <t>159,92; 476,64</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/Q45B_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/Q45B_R-Habitat-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,17 +642,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,47; 7,56</t>
+          <t>1,48; 8,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 5,58</t>
+          <t>-1,47; 5,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 4,58</t>
+          <t>-3,32; 4,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -667,14 +667,14 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 571,5</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,89; 6,72</t>
+          <t>2,83; 6,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,31; 4,19</t>
+          <t>0,3; 4,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,44; 3,94</t>
+          <t>0,51; 3,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>181,05; —</t>
+          <t>119,83; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,11; 549,95</t>
+          <t>3,15; 586,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,84; 592,93</t>
+          <t>4,27; 577,12</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,02; 9,01</t>
+          <t>5,06; 8,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,14; 7,94</t>
+          <t>4,08; 7,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,87; 4,22</t>
+          <t>1,83; 4,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>192,64; 838,88</t>
+          <t>186,96; 817,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>180,47; 788,34</t>
+          <t>175,68; 780,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>142,44; 1235,27</t>
+          <t>151,17; 1241,33</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,87; 6,12</t>
+          <t>1,89; 6,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,4; 6,04</t>
+          <t>1,47; 6,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,06; 3,91</t>
+          <t>1,21; 3,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>59,04; 589,12</t>
+          <t>59,36; 481,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>30,33; 248,82</t>
+          <t>26,29; 262,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>59,36; 1889,56</t>
+          <t>75,85; 1804,44</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,57; 9,06</t>
+          <t>4,43; 8,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,74; 9,0</t>
+          <t>4,81; 9,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,45; 4,3</t>
+          <t>1,49; 4,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>94,56; 331,4</t>
+          <t>92,98; 323,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>108,66; 347,21</t>
+          <t>104,59; 351,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>73,85; 614,21</t>
+          <t>86,08; 600,99</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,73; 6,86</t>
+          <t>4,78; 6,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,92; 6,01</t>
+          <t>3,79; 5,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,86; 3,27</t>
+          <t>1,9; 3,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>191,88; 415,01</t>
+          <t>199,37; 414,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>129,08; 286,18</t>
+          <t>123,53; 278,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>159,92; 476,64</t>
+          <t>148,54; 441,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/Q45B_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/Q45B_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -642,17 +642,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 8,17</t>
+          <t>1,47; 7,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 5,61</t>
+          <t>-1,44; 5,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 4,88</t>
+          <t>-3,89; 4,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,83; 6,79</t>
+          <t>2,79; 6,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 4,24</t>
+          <t>0,33; 4,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 3,96</t>
+          <t>0,36; 3,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>119,83; —</t>
+          <t>114,27; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,15; 586,32</t>
+          <t>-1,8; 461,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,27; 577,12</t>
+          <t>8,44; 616,14</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,06; 8,88</t>
+          <t>5,05; 8,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,08; 7,7</t>
+          <t>3,97; 7,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,83; 4,37</t>
+          <t>1,8; 4,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>186,96; 817,94</t>
+          <t>199,79; 810,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>175,68; 780,82</t>
+          <t>159,58; 774,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>151,17; 1241,33</t>
+          <t>127,21; 1237,48</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,89; 6,01</t>
+          <t>1,97; 6,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,47; 6,08</t>
+          <t>1,36; 6,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 3,92</t>
+          <t>1,28; 3,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>59,36; 481,23</t>
+          <t>58,2; 498,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,29; 262,22</t>
+          <t>22,33; 235,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>75,85; 1804,44</t>
+          <t>79,14; 1960,6</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,43; 8,94</t>
+          <t>4,45; 9,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,81; 9,44</t>
+          <t>4,74; 8,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,49; 4,16</t>
+          <t>1,51; 4,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>92,98; 323,06</t>
+          <t>92,66; 314,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>104,59; 351,97</t>
+          <t>92,78; 320,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>86,08; 600,99</t>
+          <t>81,79; 610,23</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,78; 6,86</t>
+          <t>4,85; 6,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,79; 5,91</t>
+          <t>3,9; 5,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,9; 3,29</t>
+          <t>1,95; 3,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>199,37; 414,44</t>
+          <t>198,07; 411,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>123,53; 278,81</t>
+          <t>132,9; 280,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>148,54; 441,71</t>
+          <t>166,69; 459,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/Q45B_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/Q45B_R-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,74</t>
+          <t>4,43</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>1161,98%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>95,54%</t>
+          <t>138,87%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>28,73%</t>
+          <t>124,81%</t>
         </is>
       </c>
     </row>
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,47; 7,75</t>
+          <t>2,95; 6,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 5,69</t>
+          <t>0,29; 3,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 4,41</t>
+          <t>0,34; 3,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>182,34; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,4; 416,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,89; 381,54</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>6,95</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>5,81</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>998,11%</t>
+          <t>411,67%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>147,01%</t>
+          <t>371,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>164,28%</t>
+          <t>433,47%</t>
         </is>
       </c>
     </row>
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,79; 6,61</t>
+          <t>5,05; 8,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,33; 4,02</t>
+          <t>3,97; 7,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,79</t>
+          <t>1,8; 4,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>114,27; —</t>
+          <t>199,79; 810,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 461,76</t>
+          <t>159,58; 774,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,44; 616,14</t>
+          <t>127,21; 1237,48</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,95</t>
+          <t>3,94</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,81</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>411,67%</t>
+          <t>205,1%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>371,71%</t>
+          <t>105,28%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>433,47%</t>
+          <t>411,33%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,05; 8,82</t>
+          <t>1,97; 6,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,97; 7,72</t>
+          <t>1,36; 6,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,8; 4,49</t>
+          <t>1,28; 3,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>199,79; 810,48</t>
+          <t>58,2; 498,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>159,58; 774,82</t>
+          <t>22,33; 235,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>127,21; 1237,48</t>
+          <t>79,14; 1960,6</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,94</t>
+          <t>6,72</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,69</t>
+          <t>6,81</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>205,1%</t>
+          <t>187,56%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>105,28%</t>
+          <t>194,9%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>411,33%</t>
+          <t>245,22%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,97; 6,07</t>
+          <t>4,45; 9,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,36; 6,22</t>
+          <t>4,74; 8,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,28; 3,87</t>
+          <t>1,51; 4,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>58,2; 498,3</t>
+          <t>92,66; 314,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,33; 235,08</t>
+          <t>92,78; 320,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>79,14; 1960,6</t>
+          <t>81,79; 610,23</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,72</t>
+          <t>5,81</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,81</t>
+          <t>4,92</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>187,56%</t>
+          <t>289,55%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>194,9%</t>
+          <t>197,02%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>245,22%</t>
+          <t>274,29%</t>
         </is>
       </c>
     </row>
@@ -962,124 +962,44 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,45; 9,17</t>
+          <t>4,85; 6,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,74; 8,96</t>
+          <t>3,9; 5,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,51; 4,18</t>
+          <t>1,95; 3,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>92,66; 314,33</t>
+          <t>198,07; 411,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>92,78; 320,47</t>
+          <t>132,9; 280,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>81,79; 610,23</t>
+          <t>166,69; 459,51</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>5,81</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>4,92</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,59</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>289,55%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>197,02%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>274,29%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>4,85; 6,9</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>3,9; 5,99</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>1,95; 3,27</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>198,07; 411,77</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>132,9; 280,4</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>166,69; 459,51</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1088,7 +1008,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/Q45B_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/Q45B_R-Habitat-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,95; 6,19</t>
+          <t>2,96; 6,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,29; 3,69</t>
+          <t>0,4; 3,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,51</t>
+          <t>0,28; 3,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>182,34; —</t>
+          <t>157,65; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,4; 416,68</t>
+          <t>9,34; 432,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,89; 381,54</t>
+          <t>8,05; 405,38</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,05; 8,82</t>
+          <t>4,97; 8,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,97; 7,72</t>
+          <t>4,07; 7,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,8; 4,49</t>
+          <t>1,86; 4,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>199,79; 810,48</t>
+          <t>196,34; 816,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>159,58; 774,82</t>
+          <t>181,64; 749,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>127,21; 1237,48</t>
+          <t>142,99; 1392,03</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,97; 6,07</t>
+          <t>1,96; 6,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,36; 6,22</t>
+          <t>1,26; 6,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 3,87</t>
+          <t>1,29; 3,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>58,2; 498,3</t>
+          <t>64,83; 569,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,33; 235,08</t>
+          <t>24,59; 235,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>79,14; 1960,6</t>
+          <t>87,36; 1936,87</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,45; 9,17</t>
+          <t>4,59; 9,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,74; 8,96</t>
+          <t>4,77; 9,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,51; 4,18</t>
+          <t>1,43; 4,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>92,66; 314,33</t>
+          <t>100,25; 328,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>92,78; 320,47</t>
+          <t>108,15; 363,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>81,79; 610,23</t>
+          <t>77,81; 576,58</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,85; 6,9</t>
+          <t>4,8; 6,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,9; 5,99</t>
+          <t>3,79; 6,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,95; 3,27</t>
+          <t>1,89; 3,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>198,07; 411,77</t>
+          <t>196,86; 418,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>132,9; 280,4</t>
+          <t>127,3; 288,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>166,69; 459,51</t>
+          <t>150,8; 451,15</t>
         </is>
       </c>
     </row>
